--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,87 +40,93 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>boring</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>guilty</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,12 +139,12 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -148,16 +154,16 @@
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>wow</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -646,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -696,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -743,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>0.82</v>
-      </c>
-      <c r="L7">
-        <v>41</v>
-      </c>
-      <c r="M7">
-        <v>41</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9038461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>0.6</v>
@@ -943,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>0.5862068965517241</v>
@@ -993,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4933333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.4833333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.4444444444444444</v>
@@ -1143,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.2592592592592592</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1261,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.04189435336976321</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1293,13 +1299,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1311,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1319,25 +1325,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5833333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1345,13 +1351,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1371,13 +1377,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.463768115942029</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C20">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1389,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1397,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1423,13 +1429,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1449,13 +1455,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3529411764705883</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1475,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3191489361702128</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1493,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1501,13 +1507,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3043478260869565</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1527,13 +1533,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2692307692307692</v>
+        <v>0.375</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1545,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1553,13 +1559,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2571428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1579,13 +1585,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2564102564102564</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1597,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1605,13 +1611,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1623,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1631,13 +1637,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1025641025641026</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1649,7 +1655,59 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
